--- a/data/Qualitative_research_schoolchoice.xlsx
+++ b/data/Qualitative_research_schoolchoice.xlsx
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,11 +697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="67" workbookViewId="0">
       <selection activeCell="L24" sqref="L24:P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.47265625" customWidth="1"/>
     <col min="2" max="2" width="27.5234375" customWidth="1"/>
@@ -711,12 +711,12 @@
     <col min="6" max="6" width="38.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -729,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6">
       <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
         <v>15</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16">
       <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16">
       <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16">
       <c r="A22" s="18" t="s">
         <v>23</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:16" ht="259.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:16" ht="259.5">
       <c r="A24" s="18" t="s">
         <v>25</v>
       </c>
@@ -963,7 +963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="129.9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:16" ht="129.9">
       <c r="A25" s="18"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="P25" s="20"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:16">
       <c r="A27" s="18" t="s">
         <v>27</v>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:16">
       <c r="A29" s="18" t="s">
         <v>29</v>
       </c>
